--- a/task1feb2022/temp/31d5_NJYGL.xlsx
+++ b/task1feb2022/temp/31d5_NJYGL.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\Adam feb 2023\task1\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\reactdoing\data\task1feb2022\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A66AF13-B52B-487A-807D-9F5FD820941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7E99C-5E8C-4086-BB9D-77FA38549014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hydrology_NJYGL" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="4">
   <si>
     <t>Site_Code</t>
   </si>
@@ -28,19 +28,16 @@
     <t>Collect Date (local)</t>
   </si>
   <si>
-    <t>Water Temperature (�C)</t>
+    <t>31d5</t>
   </si>
   <si>
-    <t>E = Estimate; W = Warning; P = Provisional</t>
-  </si>
-  <si>
-    <t>31d5</t>
+    <t>Water Temperature (degree C)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -875,11 +872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,7 +885,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,15 +893,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>44246</v>
@@ -913,9 +907,9 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>44247</v>
@@ -924,9 +918,9 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>44248</v>
@@ -935,9 +929,9 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>44249</v>
@@ -946,9 +940,9 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>44250</v>
@@ -957,9 +951,9 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>44251</v>
@@ -968,9 +962,9 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>44252</v>
@@ -979,9 +973,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>44253</v>
@@ -990,9 +984,9 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>44254</v>
@@ -1001,9 +995,9 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>44255</v>
@@ -1012,9 +1006,9 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>44256</v>
@@ -1023,9 +1017,9 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>44257</v>
@@ -1034,9 +1028,9 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>44258</v>
@@ -1045,9 +1039,9 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>44259</v>
@@ -1056,9 +1050,9 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>44260</v>
@@ -1069,7 +1063,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>44261</v>
@@ -1080,7 +1074,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>44262</v>
@@ -1091,7 +1085,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>44263</v>
@@ -1102,7 +1096,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>44264</v>
@@ -1113,7 +1107,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>44265</v>
@@ -1124,7 +1118,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>44266</v>
@@ -1135,7 +1129,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>44267</v>
@@ -1146,7 +1140,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>44268</v>
@@ -1157,7 +1151,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>44269</v>
@@ -1168,7 +1162,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>44270</v>
@@ -1179,7 +1173,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>44271</v>
@@ -1190,7 +1184,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>44272</v>
@@ -1201,7 +1195,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <v>44273</v>
@@ -1212,7 +1206,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
         <v>44274</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1">
         <v>44275</v>
@@ -1234,7 +1228,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1">
         <v>44276</v>
@@ -1245,7 +1239,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
         <v>44277</v>
@@ -1256,7 +1250,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1">
         <v>44278</v>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1">
         <v>44279</v>
@@ -1278,7 +1272,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1">
         <v>44280</v>
@@ -1289,7 +1283,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1">
         <v>44281</v>
@@ -1300,7 +1294,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1">
         <v>44282</v>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
         <v>44283</v>
@@ -1322,7 +1316,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1">
         <v>44284</v>
@@ -1333,7 +1327,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1">
         <v>44285</v>
@@ -1344,7 +1338,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1">
         <v>44286</v>
@@ -1355,7 +1349,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1">
         <v>44287</v>
@@ -1366,7 +1360,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1">
         <v>44288</v>
@@ -1377,7 +1371,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1">
         <v>44289</v>
@@ -1388,7 +1382,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1">
         <v>44290</v>
@@ -1399,7 +1393,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
         <v>44291</v>
@@ -1410,7 +1404,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
         <v>44292</v>
@@ -1421,7 +1415,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1">
         <v>44293</v>
@@ -1432,7 +1426,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
         <v>44294</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
         <v>44295</v>
@@ -1454,7 +1448,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1">
         <v>44296</v>
@@ -1465,7 +1459,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" s="1">
         <v>44297</v>
@@ -1476,7 +1470,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1">
         <v>44298</v>
@@ -1487,7 +1481,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1">
         <v>44299</v>
@@ -1498,7 +1492,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1">
         <v>44300</v>
@@ -1509,7 +1503,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1">
         <v>44301</v>
@@ -1520,7 +1514,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1">
         <v>44302</v>
@@ -1531,7 +1525,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1">
         <v>44303</v>
@@ -1542,7 +1536,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1">
         <v>44304</v>
@@ -1553,7 +1547,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1">
         <v>44305</v>
@@ -1564,7 +1558,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" s="1">
         <v>44306</v>
@@ -1575,7 +1569,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1">
         <v>44307</v>
@@ -1586,7 +1580,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1">
         <v>44308</v>
@@ -1597,7 +1591,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" s="1">
         <v>44309</v>
@@ -1608,7 +1602,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" s="1">
         <v>44310</v>
@@ -1619,7 +1613,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" s="1">
         <v>44311</v>
@@ -1630,7 +1624,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1">
         <v>44312</v>
@@ -1641,7 +1635,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1">
         <v>44313</v>
@@ -1652,7 +1646,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1">
         <v>44314</v>
@@ -1663,7 +1657,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>44315</v>
@@ -1674,7 +1668,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" s="1">
         <v>44316</v>
@@ -1685,7 +1679,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1">
         <v>44317</v>
@@ -1696,7 +1690,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1">
         <v>44318</v>
@@ -1707,7 +1701,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1">
         <v>44319</v>
@@ -1718,7 +1712,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" s="1">
         <v>44320</v>
@@ -1729,7 +1723,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" s="1">
         <v>44321</v>
@@ -1740,7 +1734,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <v>44322</v>
@@ -1751,7 +1745,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" s="1">
         <v>44323</v>
@@ -1762,7 +1756,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <v>44324</v>
@@ -1773,7 +1767,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" s="1">
         <v>44325</v>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1">
         <v>44326</v>
@@ -1795,7 +1789,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" s="1">
         <v>44327</v>
@@ -1806,7 +1800,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" s="1">
         <v>44328</v>
@@ -1817,7 +1811,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1">
         <v>44329</v>
@@ -1828,7 +1822,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1">
         <v>44330</v>
@@ -1839,7 +1833,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87" s="1">
         <v>44331</v>
@@ -1850,7 +1844,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1">
         <v>44332</v>
@@ -1861,7 +1855,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" s="1">
         <v>44333</v>
@@ -1872,7 +1866,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B90" s="1">
         <v>44334</v>
@@ -1883,7 +1877,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1">
         <v>44335</v>
@@ -1894,7 +1888,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B92" s="1">
         <v>44336</v>
@@ -1905,7 +1899,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" s="1">
         <v>44337</v>
@@ -1916,7 +1910,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1">
         <v>44338</v>
@@ -1927,7 +1921,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" s="1">
         <v>44339</v>
@@ -1938,7 +1932,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1">
         <v>44340</v>
@@ -1949,7 +1943,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B97" s="1">
         <v>44341</v>
@@ -1960,7 +1954,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" s="1">
         <v>44342</v>
@@ -1971,7 +1965,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
         <v>44343</v>
@@ -1982,7 +1976,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
         <v>44344</v>
@@ -1993,7 +1987,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B101" s="1">
         <v>44345</v>
@@ -2004,7 +1998,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1">
         <v>44346</v>
@@ -2015,7 +2009,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
         <v>44347</v>
@@ -2026,7 +2020,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B104" s="1">
         <v>44348</v>
@@ -2037,7 +2031,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
         <v>44349</v>
@@ -2048,7 +2042,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1">
         <v>44350</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1">
         <v>44351</v>
@@ -2070,7 +2064,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B108" s="1">
         <v>44352</v>
@@ -2081,7 +2075,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1">
         <v>44353</v>
@@ -2092,7 +2086,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B110" s="1">
         <v>44354</v>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B111" s="1">
         <v>44355</v>
@@ -2114,7 +2108,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" s="1">
         <v>44356</v>
@@ -2125,7 +2119,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1">
         <v>44357</v>
@@ -2136,7 +2130,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B114" s="1">
         <v>44358</v>
@@ -2147,7 +2141,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B115" s="1">
         <v>44359</v>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B116" s="1">
         <v>44360</v>
@@ -2169,7 +2163,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B117" s="1">
         <v>44361</v>
@@ -2180,7 +2174,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B118" s="1">
         <v>44362</v>
@@ -2191,7 +2185,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B119" s="1">
         <v>44363</v>
@@ -2202,7 +2196,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B120" s="1">
         <v>44364</v>
@@ -2213,7 +2207,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B121" s="1">
         <v>44365</v>
@@ -2224,7 +2218,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B122" s="1">
         <v>44366</v>
@@ -2235,7 +2229,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B123" s="1">
         <v>44367</v>
@@ -2246,7 +2240,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B124" s="1">
         <v>44368</v>
@@ -2257,7 +2251,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B125" s="1">
         <v>44369</v>
@@ -2268,7 +2262,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B126" s="1">
         <v>44370</v>
@@ -2279,7 +2273,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B127" s="1">
         <v>44371</v>
@@ -2290,7 +2284,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B128" s="1">
         <v>44372</v>
@@ -2301,7 +2295,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B129" s="1">
         <v>44373</v>
@@ -2312,7 +2306,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B130" s="1">
         <v>44457</v>
@@ -2323,7 +2317,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B131" s="1">
         <v>44458</v>
@@ -2334,7 +2328,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B132" s="1">
         <v>44459</v>
@@ -2345,7 +2339,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B133" s="1">
         <v>44460</v>
@@ -2356,7 +2350,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B134" s="1">
         <v>44461</v>
@@ -2367,7 +2361,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B135" s="1">
         <v>44462</v>
@@ -2378,7 +2372,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B136" s="1">
         <v>44463</v>
@@ -2389,7 +2383,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B137" s="1">
         <v>44464</v>
@@ -2400,7 +2394,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B138" s="1">
         <v>44465</v>
@@ -2411,7 +2405,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B139" s="1">
         <v>44466</v>
@@ -2422,7 +2416,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B140" s="1">
         <v>44467</v>
@@ -2433,7 +2427,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B141" s="1">
         <v>44468</v>
@@ -2444,7 +2438,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B142" s="1">
         <v>44469</v>
@@ -2455,7 +2449,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B143" s="1">
         <v>44470</v>
@@ -2466,7 +2460,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B144" s="1">
         <v>44471</v>
@@ -2477,7 +2471,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B145" s="1">
         <v>44472</v>
@@ -2488,7 +2482,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146" s="1">
         <v>44473</v>
@@ -2499,7 +2493,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B147" s="1">
         <v>44474</v>
@@ -2510,7 +2504,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B148" s="1">
         <v>44475</v>
@@ -2521,7 +2515,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B149" s="1">
         <v>44476</v>
@@ -2532,7 +2526,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B150" s="1">
         <v>44477</v>
@@ -2543,7 +2537,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B151" s="1">
         <v>44478</v>
@@ -2554,7 +2548,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B152" s="1">
         <v>44479</v>
@@ -2565,7 +2559,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B153" s="1">
         <v>44480</v>
@@ -2576,7 +2570,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B154" s="1">
         <v>44481</v>
@@ -2587,7 +2581,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B155" s="1">
         <v>44482</v>
@@ -2598,7 +2592,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B156" s="1">
         <v>44483</v>
@@ -2609,7 +2603,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B157" s="1">
         <v>44484</v>
@@ -2620,7 +2614,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B158" s="1">
         <v>44485</v>
@@ -2631,7 +2625,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B159" s="1">
         <v>44486</v>
@@ -2642,7 +2636,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B160" s="1">
         <v>44487</v>
@@ -2653,7 +2647,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B161" s="1">
         <v>44488</v>
@@ -2664,7 +2658,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B162" s="1">
         <v>44489</v>
@@ -2675,7 +2669,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B163" s="1">
         <v>44490</v>
@@ -2686,7 +2680,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B164" s="1">
         <v>44491</v>
@@ -2697,7 +2691,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B165" s="1">
         <v>44492</v>
@@ -2708,7 +2702,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B166" s="1">
         <v>44493</v>
@@ -2719,7 +2713,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B167" s="1">
         <v>44494</v>
@@ -2730,7 +2724,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B168" s="1">
         <v>44495</v>
@@ -2741,7 +2735,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B169" s="1">
         <v>44496</v>
@@ -2752,7 +2746,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B170" s="1">
         <v>44497</v>
@@ -2763,7 +2757,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B171" s="1">
         <v>44498</v>
@@ -2774,7 +2768,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B172" s="1">
         <v>44499</v>
@@ -2785,7 +2779,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B173" s="1">
         <v>44500</v>
@@ -2796,7 +2790,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B174" s="1">
         <v>44501</v>
@@ -2807,7 +2801,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B175" s="1">
         <v>44502</v>
@@ -2818,7 +2812,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B176" s="1">
         <v>44503</v>
@@ -2829,7 +2823,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B177" s="1">
         <v>44504</v>
@@ -2840,7 +2834,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B178" s="1">
         <v>44505</v>
@@ -2851,7 +2845,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B179" s="1">
         <v>44506</v>
@@ -2862,7 +2856,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B180" s="1">
         <v>44507</v>
@@ -2873,7 +2867,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B181" s="1">
         <v>44508</v>
@@ -2884,7 +2878,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B182" s="1">
         <v>44509</v>
@@ -2895,7 +2889,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B183" s="1">
         <v>44510</v>
@@ -2906,7 +2900,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B184" s="1">
         <v>44511</v>
@@ -2917,7 +2911,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B185" s="1">
         <v>44512</v>
@@ -2928,7 +2922,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B186" s="1">
         <v>44513</v>
@@ -2939,7 +2933,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B187" s="1">
         <v>44514</v>
@@ -2950,7 +2944,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B188" s="1">
         <v>44515</v>
@@ -2961,7 +2955,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B189" s="1">
         <v>44516</v>
@@ -2972,7 +2966,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B190" s="1">
         <v>44517</v>
@@ -2983,7 +2977,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B191" s="1">
         <v>44518</v>
@@ -2994,7 +2988,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B192" s="1">
         <v>44519</v>
@@ -3005,7 +2999,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B193" s="1">
         <v>44520</v>
@@ -3016,7 +3010,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B194" s="1">
         <v>44521</v>
@@ -3027,7 +3021,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B195" s="1">
         <v>44522</v>
@@ -3038,7 +3032,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B196" s="1">
         <v>44523</v>
@@ -3049,7 +3043,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B197" s="1">
         <v>44524</v>
@@ -3060,7 +3054,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B198" s="1">
         <v>44525</v>
@@ -3071,7 +3065,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B199" s="1">
         <v>44526</v>
@@ -3082,7 +3076,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B200" s="1">
         <v>44527</v>
@@ -3093,7 +3087,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B201" s="1">
         <v>44528</v>
@@ -3104,7 +3098,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B202" s="1">
         <v>44529</v>
@@ -3115,7 +3109,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B203" s="1">
         <v>44530</v>
@@ -3126,7 +3120,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B204" s="1">
         <v>44531</v>
@@ -3137,7 +3131,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B205" s="1">
         <v>44532</v>
@@ -3148,7 +3142,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B206" s="1">
         <v>44533</v>
@@ -3159,7 +3153,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B207" s="1">
         <v>44534</v>
@@ -3170,7 +3164,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B208" s="1">
         <v>44535</v>
@@ -3181,7 +3175,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B209" s="1">
         <v>44536</v>
@@ -3192,7 +3186,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B210" s="1">
         <v>44537</v>
@@ -3203,7 +3197,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B211" s="1">
         <v>44538</v>
@@ -3214,7 +3208,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B212" s="1">
         <v>44539</v>
@@ -3225,7 +3219,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B213" s="1">
         <v>44540</v>
@@ -3236,7 +3230,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B214" s="1">
         <v>44541</v>
@@ -3247,7 +3241,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B215" s="1">
         <v>44542</v>
@@ -3258,7 +3252,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B216" s="1">
         <v>44543</v>
@@ -3269,7 +3263,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B217" s="1">
         <v>44544</v>
@@ -3280,7 +3274,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B218" s="1">
         <v>44545</v>
@@ -3291,7 +3285,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B219" s="1">
         <v>44546</v>
@@ -3302,7 +3296,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B220" s="1">
         <v>44547</v>
@@ -3313,7 +3307,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B221" s="1">
         <v>44548</v>
@@ -3324,7 +3318,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B222" s="1">
         <v>44549</v>
@@ -3335,7 +3329,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B223" s="1">
         <v>44550</v>
@@ -3346,7 +3340,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B224" s="1">
         <v>44551</v>
@@ -3357,7 +3351,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B225" s="1">
         <v>44552</v>
@@ -3368,7 +3362,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B226" s="1">
         <v>44553</v>
@@ -3379,7 +3373,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B227" s="1">
         <v>44554</v>
@@ -3390,7 +3384,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B228" s="1">
         <v>44555</v>
@@ -3401,7 +3395,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B229" s="1">
         <v>44556</v>
@@ -3412,7 +3406,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B230" s="1">
         <v>44557</v>
@@ -3423,7 +3417,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B231" s="1">
         <v>44558</v>
@@ -3434,7 +3428,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B232" s="1">
         <v>44559</v>
@@ -3445,7 +3439,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B233" s="1">
         <v>44560</v>
@@ -3456,7 +3450,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B234" s="1">
         <v>44561</v>
@@ -3467,7 +3461,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B235" s="1">
         <v>44562</v>
@@ -3478,7 +3472,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B236" s="1">
         <v>44563</v>
@@ -3489,7 +3483,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B237" s="1">
         <v>44564</v>
@@ -3500,7 +3494,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B238" s="1">
         <v>44565</v>
@@ -3511,7 +3505,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B239" s="1">
         <v>44566</v>
@@ -3522,7 +3516,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B240" s="1">
         <v>44567</v>
@@ -3533,7 +3527,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B241" s="1">
         <v>44568</v>
@@ -3544,7 +3538,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B242" s="1">
         <v>44569</v>
@@ -3555,7 +3549,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B243" s="1">
         <v>44570</v>
@@ -3566,7 +3560,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B244" s="1">
         <v>44571</v>
@@ -3577,7 +3571,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B245" s="1">
         <v>44572</v>
@@ -3588,7 +3582,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B246" s="1">
         <v>44573</v>
@@ -3599,7 +3593,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B247" s="1">
         <v>44574</v>
@@ -3610,7 +3604,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B248" s="1">
         <v>44575</v>
@@ -3621,7 +3615,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B249" s="1">
         <v>44576</v>
@@ -3632,7 +3626,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B250" s="1">
         <v>44577</v>
@@ -3643,7 +3637,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B251" s="1">
         <v>44578</v>
@@ -3654,7 +3648,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B252" s="1">
         <v>44579</v>
@@ -3665,7 +3659,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B253" s="1">
         <v>44580</v>
@@ -3676,7 +3670,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B254" s="1">
         <v>44581</v>
@@ -3687,7 +3681,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B255" s="1">
         <v>44582</v>
@@ -3698,7 +3692,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B256" s="1">
         <v>44583</v>
@@ -3709,7 +3703,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B257" s="1">
         <v>44584</v>
@@ -3720,7 +3714,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B258" s="1">
         <v>44585</v>
@@ -3731,7 +3725,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B259" s="1">
         <v>44586</v>
@@ -3742,7 +3736,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B260" s="1">
         <v>44587</v>
@@ -3753,7 +3747,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B261" s="1">
         <v>44588</v>
@@ -3764,7 +3758,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B262" s="1">
         <v>44589</v>
@@ -3775,7 +3769,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B263" s="1">
         <v>44590</v>
@@ -3786,7 +3780,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B264" s="1">
         <v>44591</v>
@@ -3797,7 +3791,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B265" s="1">
         <v>44592</v>
@@ -3808,7 +3802,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B266" s="1">
         <v>44593</v>
@@ -3819,7 +3813,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B267" s="1">
         <v>44594</v>
@@ -3830,7 +3824,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B268" s="1">
         <v>44595</v>
@@ -3841,7 +3835,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B269" s="1">
         <v>44596</v>
@@ -3852,7 +3846,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B270" s="1">
         <v>44597</v>
@@ -3863,7 +3857,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B271" s="1">
         <v>44598</v>
@@ -3874,7 +3868,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B272" s="1">
         <v>44599</v>
@@ -3885,7 +3879,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B273" s="1">
         <v>44600</v>
@@ -3896,7 +3890,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B274" s="1">
         <v>44601</v>
@@ -3907,7 +3901,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B275" s="1">
         <v>44602</v>
@@ -3918,7 +3912,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B276" s="1">
         <v>44603</v>
@@ -3929,7 +3923,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B277" s="1">
         <v>44604</v>
@@ -3940,7 +3934,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B278" s="1">
         <v>44605</v>
@@ -3951,7 +3945,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B279" s="1">
         <v>44606</v>
@@ -3962,7 +3956,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B280" s="1">
         <v>44607</v>
@@ -3973,7 +3967,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B281" s="1">
         <v>44608</v>
@@ -3984,7 +3978,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B282" s="1">
         <v>44609</v>
@@ -3995,7 +3989,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B283" s="1">
         <v>44610</v>
@@ -4006,7 +4000,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B284" s="1">
         <v>44611</v>
@@ -4017,7 +4011,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B285" s="1">
         <v>44612</v>
@@ -4028,7 +4022,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B286" s="1">
         <v>44613</v>
@@ -4039,7 +4033,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B287" s="1">
         <v>44614</v>
@@ -4050,7 +4044,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B288" s="1">
         <v>44615</v>
@@ -4061,7 +4055,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B289" s="1">
         <v>44616</v>
@@ -4072,7 +4066,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B290" s="1">
         <v>44617</v>
@@ -4083,7 +4077,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B291" s="1">
         <v>44618</v>
@@ -4094,7 +4088,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B292" s="1">
         <v>44619</v>
@@ -4105,7 +4099,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B293" s="1">
         <v>44620</v>
@@ -4116,7 +4110,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B294" s="1">
         <v>44621</v>
@@ -4127,7 +4121,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B295" s="1">
         <v>44622</v>
@@ -4138,7 +4132,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B296" s="1">
         <v>44623</v>
@@ -4149,7 +4143,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B297" s="1">
         <v>44624</v>
@@ -4160,7 +4154,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B298" s="1">
         <v>44625</v>
@@ -4171,7 +4165,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B299" s="1">
         <v>44626</v>
@@ -4182,7 +4176,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B300" s="1">
         <v>44627</v>
@@ -4193,7 +4187,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B301" s="1">
         <v>44628</v>
@@ -4204,7 +4198,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B302" s="1">
         <v>44629</v>
@@ -4215,7 +4209,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B303" s="1">
         <v>44630</v>
@@ -4226,7 +4220,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B304" s="1">
         <v>44631</v>
@@ -4237,7 +4231,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B305" s="1">
         <v>44632</v>
@@ -4248,7 +4242,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B306" s="1">
         <v>44633</v>
@@ -4259,7 +4253,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B307" s="1">
         <v>44634</v>
@@ -4270,7 +4264,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B308" s="1">
         <v>44635</v>
@@ -4281,7 +4275,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B309" s="1">
         <v>44636</v>
@@ -4292,7 +4286,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B310" s="1">
         <v>44637</v>
@@ -4303,7 +4297,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B311" s="1">
         <v>44638</v>
@@ -4314,7 +4308,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B312" s="1">
         <v>44639</v>
@@ -4325,7 +4319,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B313" s="1">
         <v>44640</v>
@@ -4336,7 +4330,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B314" s="1">
         <v>44641</v>
@@ -4347,7 +4341,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B315" s="1">
         <v>44642</v>
@@ -4358,7 +4352,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B316" s="1">
         <v>44643</v>
@@ -4369,7 +4363,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B317" s="1">
         <v>44644</v>
@@ -4380,7 +4374,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B318" s="1">
         <v>44645</v>
@@ -4391,7 +4385,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B319" s="1">
         <v>44646</v>
@@ -4402,7 +4396,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B320" s="1">
         <v>44647</v>
@@ -4413,7 +4407,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B321" s="1">
         <v>44648</v>
@@ -4424,7 +4418,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B322" s="1">
         <v>44649</v>
@@ -4435,7 +4429,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B323" s="1">
         <v>44650</v>
@@ -4446,7 +4440,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B324" s="1">
         <v>44651</v>
@@ -4457,7 +4451,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B325" s="1">
         <v>44652</v>
@@ -4468,7 +4462,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B326" s="1">
         <v>44653</v>
@@ -4479,7 +4473,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B327" s="1">
         <v>44654</v>
@@ -4490,7 +4484,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B328" s="1">
         <v>44655</v>
@@ -4501,7 +4495,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B329" s="1">
         <v>44656</v>
@@ -4512,7 +4506,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B330" s="1">
         <v>44657</v>
@@ -4523,7 +4517,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B331" s="1">
         <v>44658</v>
@@ -4534,7 +4528,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B332" s="1">
         <v>44659</v>
@@ -4545,7 +4539,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B333" s="1">
         <v>44660</v>
@@ -4556,7 +4550,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B334" s="1">
         <v>44661</v>
@@ -4567,7 +4561,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B335" s="1">
         <v>44662</v>
@@ -4578,7 +4572,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B336" s="1">
         <v>44663</v>
@@ -4589,7 +4583,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B337" s="1">
         <v>44664</v>
@@ -4600,7 +4594,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B338" s="1">
         <v>44665</v>
@@ -4611,7 +4605,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B339" s="1">
         <v>44666</v>
@@ -4622,7 +4616,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B340" s="1">
         <v>44667</v>
@@ -4633,7 +4627,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B341" s="1">
         <v>44668</v>
@@ -4644,7 +4638,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B342" s="1">
         <v>44669</v>
@@ -4655,7 +4649,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B343" s="1">
         <v>44670</v>
@@ -4666,7 +4660,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B344" s="1">
         <v>44671</v>
@@ -4677,7 +4671,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B345" s="1">
         <v>44672</v>
@@ -4688,7 +4682,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B346" s="1">
         <v>44673</v>
@@ -4699,7 +4693,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B347" s="1">
         <v>44674</v>
@@ -4710,7 +4704,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B348" s="1">
         <v>44675</v>
@@ -4721,7 +4715,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B349" s="1">
         <v>44676</v>
@@ -4732,7 +4726,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B350" s="1">
         <v>44677</v>
@@ -4743,7 +4737,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B351" s="1">
         <v>44678</v>
@@ -4754,7 +4748,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B352" s="1">
         <v>44679</v>
@@ -4765,7 +4759,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B353" s="1">
         <v>44680</v>
@@ -4776,7 +4770,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B354" s="1">
         <v>44681</v>
@@ -4787,7 +4781,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B355" s="1">
         <v>44682</v>
@@ -4798,7 +4792,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B356" s="1">
         <v>44683</v>
@@ -4809,7 +4803,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B357" s="1">
         <v>44684</v>
@@ -4820,7 +4814,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B358" s="1">
         <v>44685</v>
@@ -4831,7 +4825,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B359" s="1">
         <v>44686</v>
@@ -4842,7 +4836,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B360" s="1">
         <v>44687</v>
@@ -4853,7 +4847,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B361" s="1">
         <v>44688</v>
@@ -4864,7 +4858,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B362" s="1">
         <v>44689</v>
@@ -4875,7 +4869,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B363" s="1">
         <v>44690</v>
@@ -4886,7 +4880,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B364" s="1">
         <v>44691</v>
@@ -4897,7 +4891,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B365" s="1">
         <v>44692</v>
@@ -4908,7 +4902,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B366" s="1">
         <v>44693</v>
@@ -4919,7 +4913,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B367" s="1">
         <v>44694</v>

--- a/task1feb2022/temp/31d5_NJYGL.xlsx
+++ b/task1feb2022/temp/31d5_NJYGL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\reactdoing\data\task1feb2022\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7E99C-5E8C-4086-BB9D-77FA38549014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0412AF25-4AC7-4BD3-B7D5-0E8D6671B58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,13 @@
     <t>Site_Code</t>
   </si>
   <si>
-    <t>Collect Date (local)</t>
-  </si>
-  <si>
     <t>31d5</t>
   </si>
   <si>
-    <t>Water Temperature (degree C)</t>
+    <t>Wtemp_degree_C</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,15 +890,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>44246</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>44247</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>44248</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>44249</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>44250</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>44251</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>44252</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>44253</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>44254</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>44255</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>44256</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>44257</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>44258</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>44259</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>44260</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>44261</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>44262</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>44263</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>44264</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>44265</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>44266</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>44267</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>44268</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>44269</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>44270</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1">
         <v>44271</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>44272</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>44273</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>44274</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>44275</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>44276</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>44277</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>44278</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>44279</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>44280</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>44281</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>44282</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>44283</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1">
         <v>44284</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1">
         <v>44285</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>44286</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>44287</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>44288</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>44289</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>44290</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>44291</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>44292</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>44293</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1">
         <v>44294</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1">
         <v>44295</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1">
         <v>44296</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1">
         <v>44297</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1">
         <v>44298</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1">
         <v>44299</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>44300</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1">
         <v>44301</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>44302</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>44303</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1">
         <v>44304</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1">
         <v>44305</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1">
         <v>44306</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1">
         <v>44307</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1">
         <v>44308</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1">
         <v>44309</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1">
         <v>44310</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1">
         <v>44311</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1">
         <v>44312</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1">
         <v>44313</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
         <v>44314</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="1">
         <v>44315</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1">
         <v>44316</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1">
         <v>44317</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1">
         <v>44318</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1">
         <v>44319</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="1">
         <v>44320</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1">
         <v>44321</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1">
         <v>44322</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1">
         <v>44323</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1">
         <v>44324</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="1">
         <v>44325</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1">
         <v>44326</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1">
         <v>44327</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1">
         <v>44328</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
         <v>44329</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
         <v>44330</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1">
         <v>44331</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="1">
         <v>44332</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="1">
         <v>44333</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1">
         <v>44334</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1">
         <v>44335</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1">
         <v>44336</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1">
         <v>44337</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1">
         <v>44338</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="1">
         <v>44339</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
         <v>44340</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" s="1">
         <v>44341</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1">
         <v>44342</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
         <v>44343</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="1">
         <v>44344</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1">
         <v>44345</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1">
         <v>44346</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
         <v>44347</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1">
         <v>44348</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1">
         <v>44349</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1">
         <v>44350</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" s="1">
         <v>44351</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" s="1">
         <v>44352</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="1">
         <v>44353</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1">
         <v>44354</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1">
         <v>44355</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1">
         <v>44356</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1">
         <v>44357</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" s="1">
         <v>44358</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="1">
         <v>44359</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="1">
         <v>44360</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="1">
         <v>44361</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" s="1">
         <v>44362</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1">
         <v>44363</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" s="1">
         <v>44364</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1">
         <v>44365</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1">
         <v>44366</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="1">
         <v>44367</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="1">
         <v>44368</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="1">
         <v>44369</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="1">
         <v>44370</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1">
         <v>44371</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" s="1">
         <v>44372</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" s="1">
         <v>44373</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1">
         <v>44457</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" s="1">
         <v>44458</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" s="1">
         <v>44459</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1">
         <v>44460</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" s="1">
         <v>44461</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" s="1">
         <v>44462</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="1">
         <v>44463</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="1">
         <v>44464</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" s="1">
         <v>44465</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" s="1">
         <v>44466</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1">
         <v>44467</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="1">
         <v>44468</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="1">
         <v>44469</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="1">
         <v>44470</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" s="1">
         <v>44471</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" s="1">
         <v>44472</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" s="1">
         <v>44473</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1">
         <v>44474</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1">
         <v>44475</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149" s="1">
         <v>44476</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" s="1">
         <v>44477</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" s="1">
         <v>44478</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" s="1">
         <v>44479</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153" s="1">
         <v>44480</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154" s="1">
         <v>44481</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="1">
         <v>44482</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1">
         <v>44483</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157" s="1">
         <v>44484</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1">
         <v>44485</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" s="1">
         <v>44486</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" s="1">
         <v>44487</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1">
         <v>44488</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162" s="1">
         <v>44489</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" s="1">
         <v>44490</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" s="1">
         <v>44491</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" s="1">
         <v>44492</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="1">
         <v>44493</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" s="1">
         <v>44494</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1">
         <v>44495</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" s="1">
         <v>44496</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" s="1">
         <v>44497</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" s="1">
         <v>44498</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" s="1">
         <v>44499</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173" s="1">
         <v>44500</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="1">
         <v>44501</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" s="1">
         <v>44502</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" s="1">
         <v>44503</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" s="1">
         <v>44504</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" s="1">
         <v>44505</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" s="1">
         <v>44506</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" s="1">
         <v>44507</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" s="1">
         <v>44508</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" s="1">
         <v>44509</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" s="1">
         <v>44510</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184" s="1">
         <v>44511</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" s="1">
         <v>44512</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" s="1">
         <v>44513</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" s="1">
         <v>44514</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" s="1">
         <v>44515</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" s="1">
         <v>44516</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" s="1">
         <v>44517</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191" s="1">
         <v>44518</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B192" s="1">
         <v>44519</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B193" s="1">
         <v>44520</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" s="1">
         <v>44521</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B195" s="1">
         <v>44522</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196" s="1">
         <v>44523</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B197" s="1">
         <v>44524</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" s="1">
         <v>44525</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199" s="1">
         <v>44526</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B200" s="1">
         <v>44527</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B201" s="1">
         <v>44528</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B202" s="1">
         <v>44529</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B203" s="1">
         <v>44530</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B204" s="1">
         <v>44531</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B205" s="1">
         <v>44532</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B206" s="1">
         <v>44533</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B207" s="1">
         <v>44534</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B208" s="1">
         <v>44535</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B209" s="1">
         <v>44536</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B210" s="1">
         <v>44537</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B211" s="1">
         <v>44538</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B212" s="1">
         <v>44539</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B213" s="1">
         <v>44540</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B214" s="1">
         <v>44541</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B215" s="1">
         <v>44542</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B216" s="1">
         <v>44543</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B217" s="1">
         <v>44544</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B218" s="1">
         <v>44545</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B219" s="1">
         <v>44546</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B220" s="1">
         <v>44547</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B221" s="1">
         <v>44548</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B222" s="1">
         <v>44549</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B223" s="1">
         <v>44550</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B224" s="1">
         <v>44551</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B225" s="1">
         <v>44552</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B226" s="1">
         <v>44553</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B227" s="1">
         <v>44554</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B228" s="1">
         <v>44555</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B229" s="1">
         <v>44556</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B230" s="1">
         <v>44557</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B231" s="1">
         <v>44558</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B232" s="1">
         <v>44559</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B233" s="1">
         <v>44560</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" s="1">
         <v>44561</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B235" s="1">
         <v>44562</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B236" s="1">
         <v>44563</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B237" s="1">
         <v>44564</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B238" s="1">
         <v>44565</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B239" s="1">
         <v>44566</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B240" s="1">
         <v>44567</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B241" s="1">
         <v>44568</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B242" s="1">
         <v>44569</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B243" s="1">
         <v>44570</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B244" s="1">
         <v>44571</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B245" s="1">
         <v>44572</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B246" s="1">
         <v>44573</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B247" s="1">
         <v>44574</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B248" s="1">
         <v>44575</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B249" s="1">
         <v>44576</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B250" s="1">
         <v>44577</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B251" s="1">
         <v>44578</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B252" s="1">
         <v>44579</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B253" s="1">
         <v>44580</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" s="1">
         <v>44581</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B255" s="1">
         <v>44582</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B256" s="1">
         <v>44583</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B257" s="1">
         <v>44584</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" s="1">
         <v>44585</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259" s="1">
         <v>44586</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B260" s="1">
         <v>44587</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B261" s="1">
         <v>44588</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B262" s="1">
         <v>44589</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B263" s="1">
         <v>44590</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B264" s="1">
         <v>44591</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B265" s="1">
         <v>44592</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B266" s="1">
         <v>44593</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B267" s="1">
         <v>44594</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B268" s="1">
         <v>44595</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B269" s="1">
         <v>44596</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B270" s="1">
         <v>44597</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B271" s="1">
         <v>44598</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272" s="1">
         <v>44599</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B273" s="1">
         <v>44600</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" s="1">
         <v>44601</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B275" s="1">
         <v>44602</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276" s="1">
         <v>44603</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B277" s="1">
         <v>44604</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278" s="1">
         <v>44605</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B279" s="1">
         <v>44606</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280" s="1">
         <v>44607</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B281" s="1">
         <v>44608</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282" s="1">
         <v>44609</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B283" s="1">
         <v>44610</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B284" s="1">
         <v>44611</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B285" s="1">
         <v>44612</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B286" s="1">
         <v>44613</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B287" s="1">
         <v>44614</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B288" s="1">
         <v>44615</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B289" s="1">
         <v>44616</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B290" s="1">
         <v>44617</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B291" s="1">
         <v>44618</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B292" s="1">
         <v>44619</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B293" s="1">
         <v>44620</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B294" s="1">
         <v>44621</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B295" s="1">
         <v>44622</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B296" s="1">
         <v>44623</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B297" s="1">
         <v>44624</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B298" s="1">
         <v>44625</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B299" s="1">
         <v>44626</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300" s="1">
         <v>44627</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B301" s="1">
         <v>44628</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B302" s="1">
         <v>44629</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B303" s="1">
         <v>44630</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B304" s="1">
         <v>44631</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B305" s="1">
         <v>44632</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B306" s="1">
         <v>44633</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B307" s="1">
         <v>44634</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B308" s="1">
         <v>44635</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B309" s="1">
         <v>44636</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310" s="1">
         <v>44637</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B311" s="1">
         <v>44638</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312" s="1">
         <v>44639</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B313" s="1">
         <v>44640</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B314" s="1">
         <v>44641</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B315" s="1">
         <v>44642</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B316" s="1">
         <v>44643</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B317" s="1">
         <v>44644</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B318" s="1">
         <v>44645</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B319" s="1">
         <v>44646</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B320" s="1">
         <v>44647</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B321" s="1">
         <v>44648</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B322" s="1">
         <v>44649</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B323" s="1">
         <v>44650</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B324" s="1">
         <v>44651</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B325" s="1">
         <v>44652</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B326" s="1">
         <v>44653</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B327" s="1">
         <v>44654</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B328" s="1">
         <v>44655</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B329" s="1">
         <v>44656</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B330" s="1">
         <v>44657</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B331" s="1">
         <v>44658</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B332" s="1">
         <v>44659</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B333" s="1">
         <v>44660</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B334" s="1">
         <v>44661</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B335" s="1">
         <v>44662</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B336" s="1">
         <v>44663</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B337" s="1">
         <v>44664</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B338" s="1">
         <v>44665</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B339" s="1">
         <v>44666</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B340" s="1">
         <v>44667</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B341" s="1">
         <v>44668</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B342" s="1">
         <v>44669</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B343" s="1">
         <v>44670</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B344" s="1">
         <v>44671</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B345" s="1">
         <v>44672</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B346" s="1">
         <v>44673</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B347" s="1">
         <v>44674</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B348" s="1">
         <v>44675</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B349" s="1">
         <v>44676</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B350" s="1">
         <v>44677</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B351" s="1">
         <v>44678</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B352" s="1">
         <v>44679</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B353" s="1">
         <v>44680</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B354" s="1">
         <v>44681</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B355" s="1">
         <v>44682</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B356" s="1">
         <v>44683</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B357" s="1">
         <v>44684</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B358" s="1">
         <v>44685</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B359" s="1">
         <v>44686</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B360" s="1">
         <v>44687</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B361" s="1">
         <v>44688</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B362" s="1">
         <v>44689</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B363" s="1">
         <v>44690</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B364" s="1">
         <v>44691</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B365" s="1">
         <v>44692</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B366" s="1">
         <v>44693</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B367" s="1">
         <v>44694</v>
